--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H2">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I2">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J2">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N2">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O2">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P2">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q2">
-        <v>46.15361224803782</v>
+        <v>54.21832227163734</v>
       </c>
       <c r="R2">
-        <v>46.15361224803782</v>
+        <v>487.964900444736</v>
       </c>
       <c r="S2">
-        <v>0.002635024087065159</v>
+        <v>0.002823483973039489</v>
       </c>
       <c r="T2">
-        <v>0.002635024087065159</v>
+        <v>0.003067810923016532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H3">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I3">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J3">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N3">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P3">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q3">
-        <v>295.6283621138587</v>
+        <v>356.1872802079973</v>
       </c>
       <c r="R3">
-        <v>295.6283621138587</v>
+        <v>3205.685521871976</v>
       </c>
       <c r="S3">
-        <v>0.01687815572924646</v>
+        <v>0.01854887858811341</v>
       </c>
       <c r="T3">
-        <v>0.01687815572924646</v>
+        <v>0.02015398454026425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H4">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I4">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J4">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N4">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O4">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P4">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q4">
-        <v>341.5574037541894</v>
+        <v>405.3619681376026</v>
       </c>
       <c r="R4">
-        <v>341.5574037541894</v>
+        <v>3648.257713238424</v>
       </c>
       <c r="S4">
-        <v>0.01950035852385513</v>
+        <v>0.02110970927101137</v>
       </c>
       <c r="T4">
-        <v>0.01950035852385513</v>
+        <v>0.02293641377166984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H5">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I5">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J5">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N5">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O5">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P5">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q5">
-        <v>444.4664764449829</v>
+        <v>507.7149942428373</v>
       </c>
       <c r="R5">
-        <v>444.4664764449829</v>
+        <v>4569.434948185536</v>
       </c>
       <c r="S5">
-        <v>0.02537569248169304</v>
+        <v>0.02643986551141204</v>
       </c>
       <c r="T5">
-        <v>0.02537569248169304</v>
+        <v>0.02872780897413067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H6">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I6">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J6">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N6">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O6">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P6">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q6">
-        <v>125.42311638035</v>
+        <v>142.4751474003</v>
       </c>
       <c r="R6">
-        <v>125.42311638035</v>
+        <v>854.8508844018</v>
       </c>
       <c r="S6">
-        <v>0.007160716499520566</v>
+        <v>0.007419563689664821</v>
       </c>
       <c r="T6">
-        <v>0.007160716499520566</v>
+        <v>0.005374404753964871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H7">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J7">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N7">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O7">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P7">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q7">
-        <v>201.2791369980243</v>
+        <v>226.9267666893778</v>
       </c>
       <c r="R7">
-        <v>201.2791369980243</v>
+        <v>2042.3409002044</v>
       </c>
       <c r="S7">
-        <v>0.01149152467987011</v>
+        <v>0.01181748276147425</v>
       </c>
       <c r="T7">
-        <v>0.01149152467987011</v>
+        <v>0.01284009508974933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H8">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J8">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N8">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P8">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q8">
-        <v>1289.25600186249</v>
+        <v>1490.795444177128</v>
       </c>
       <c r="R8">
-        <v>1289.25600186249</v>
+        <v>13417.15899759415</v>
       </c>
       <c r="S8">
-        <v>0.07360681978787945</v>
+        <v>0.07763495562673176</v>
       </c>
       <c r="T8">
-        <v>0.07360681978787945</v>
+        <v>0.08435300754450585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H9">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J9">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N9">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O9">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P9">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q9">
-        <v>1489.555770704637</v>
+        <v>1696.612453396205</v>
       </c>
       <c r="R9">
-        <v>1489.555770704637</v>
+        <v>15269.51208056585</v>
       </c>
       <c r="S9">
-        <v>0.08504242991295867</v>
+        <v>0.08835312252237143</v>
       </c>
       <c r="T9">
-        <v>0.08504242991295867</v>
+        <v>0.0959986587297544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H10">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J10">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N10">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O10">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P10">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q10">
-        <v>1938.349447549519</v>
+        <v>2125.003453002711</v>
       </c>
       <c r="R10">
-        <v>1938.349447549519</v>
+        <v>19125.0310770244</v>
       </c>
       <c r="S10">
-        <v>0.110665172987832</v>
+        <v>0.1106620961479916</v>
       </c>
       <c r="T10">
-        <v>0.110665172987832</v>
+        <v>0.1202381138226373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H11">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J11">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N11">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O11">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P11">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q11">
-        <v>546.9789989344306</v>
+        <v>596.319162573125</v>
       </c>
       <c r="R11">
-        <v>546.9789989344306</v>
+        <v>3577.91497543875</v>
       </c>
       <c r="S11">
-        <v>0.03122838640592619</v>
+        <v>0.03105403354065648</v>
       </c>
       <c r="T11">
-        <v>0.03122838640592619</v>
+        <v>0.02249417249738957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H12">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I12">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J12">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N12">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O12">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P12">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q12">
-        <v>133.2147457256696</v>
+        <v>145.0451156367493</v>
       </c>
       <c r="R12">
-        <v>133.2147457256696</v>
+        <v>1305.406040730744</v>
       </c>
       <c r="S12">
-        <v>0.007605559925687578</v>
+        <v>0.007553397859052817</v>
       </c>
       <c r="T12">
-        <v>0.007605559925687578</v>
+        <v>0.008207022486813254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H13">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I13">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J13">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N13">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P13">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q13">
-        <v>853.2822279792013</v>
+        <v>952.8739193970642</v>
       </c>
       <c r="R13">
-        <v>853.2822279792013</v>
+        <v>8575.865274573578</v>
       </c>
       <c r="S13">
-        <v>0.04871599673946235</v>
+        <v>0.04962204891301748</v>
       </c>
       <c r="T13">
-        <v>0.04871599673946235</v>
+        <v>0.05391603605029088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H14">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I14">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J14">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N14">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O14">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P14">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q14">
-        <v>985.8487878978228</v>
+        <v>1084.426280265335</v>
       </c>
       <c r="R14">
-        <v>985.8487878978228</v>
+        <v>9759.836522388021</v>
       </c>
       <c r="S14">
-        <v>0.05628455013128891</v>
+        <v>0.05647279543125448</v>
       </c>
       <c r="T14">
-        <v>0.05628455013128891</v>
+        <v>0.06135960406772867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H15">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I15">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J15">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N15">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O15">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P15">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q15">
-        <v>1282.878755513225</v>
+        <v>1358.241586331549</v>
       </c>
       <c r="R15">
-        <v>1282.878755513225</v>
+        <v>12224.17427698394</v>
       </c>
       <c r="S15">
-        <v>0.07324272699165035</v>
+        <v>0.07073205495569181</v>
       </c>
       <c r="T15">
-        <v>0.07324272699165035</v>
+        <v>0.07685277227441943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H16">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I16">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J16">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N16">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O16">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P16">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q16">
-        <v>362.0130200630118</v>
+        <v>381.1501972802625</v>
       </c>
       <c r="R16">
-        <v>362.0130200630118</v>
+        <v>2286.901183681575</v>
       </c>
       <c r="S16">
-        <v>0.02066822034580389</v>
+        <v>0.01984885234828867</v>
       </c>
       <c r="T16">
-        <v>0.02066822034580389</v>
+        <v>0.01437763336002962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H17">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I17">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J17">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N17">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O17">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P17">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q17">
-        <v>171.4950716368754</v>
+        <v>179.984337886624</v>
       </c>
       <c r="R17">
-        <v>171.4950716368754</v>
+        <v>1619.859040979616</v>
       </c>
       <c r="S17">
-        <v>0.009791078586602798</v>
+        <v>0.009372899642209095</v>
       </c>
       <c r="T17">
-        <v>0.009791078586602798</v>
+        <v>0.01018397277167921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H18">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I18">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J18">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N18">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P18">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q18">
-        <v>1098.479721720238</v>
+        <v>1182.407147729284</v>
       </c>
       <c r="R18">
-        <v>1098.479721720238</v>
+        <v>10641.66432956355</v>
       </c>
       <c r="S18">
-        <v>0.06271492923088633</v>
+        <v>0.06157526628166079</v>
       </c>
       <c r="T18">
-        <v>0.06271492923088633</v>
+        <v>0.06690361138589275</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H19">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I19">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J19">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N19">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O19">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P19">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q19">
-        <v>1269.140346158283</v>
+        <v>1345.648525864316</v>
       </c>
       <c r="R19">
-        <v>1269.140346158283</v>
+        <v>12110.83673277884</v>
       </c>
       <c r="S19">
-        <v>0.072458367159235</v>
+        <v>0.07007625627157518</v>
       </c>
       <c r="T19">
-        <v>0.072458367159235</v>
+        <v>0.07614022480269887</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H20">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I20">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J20">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N20">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O20">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P20">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q20">
-        <v>1651.524257916834</v>
+        <v>1685.421887753824</v>
       </c>
       <c r="R20">
-        <v>1651.524257916834</v>
+        <v>15168.79698978442</v>
       </c>
       <c r="S20">
-        <v>0.09428961218887656</v>
+        <v>0.08777036043352975</v>
       </c>
       <c r="T20">
-        <v>0.09428961218887656</v>
+        <v>0.09536546799138308</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H21">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I21">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J21">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N21">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O21">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P21">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q21">
-        <v>466.0403656591957</v>
+        <v>472.96364025555</v>
       </c>
       <c r="R21">
-        <v>466.0403656591957</v>
+        <v>2837.7818415333</v>
       </c>
       <c r="S21">
-        <v>0.02660739927477386</v>
+        <v>0.02463014719270531</v>
       </c>
       <c r="T21">
-        <v>0.02660739927477386</v>
+        <v>0.01784099250306588</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H22">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I22">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J22">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N22">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O22">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P22">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q22">
-        <v>92.91188801915092</v>
+        <v>104.0331628635747</v>
       </c>
       <c r="R22">
-        <v>92.91188801915092</v>
+        <v>624.1989771814481</v>
       </c>
       <c r="S22">
-        <v>0.005304569912955664</v>
+        <v>0.005417651371399389</v>
       </c>
       <c r="T22">
-        <v>0.005304569912955664</v>
+        <v>0.003924307749569102</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H23">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I23">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J23">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N23">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O23">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P23">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q23">
-        <v>595.1297837402877</v>
+        <v>683.4458865429822</v>
       </c>
       <c r="R23">
-        <v>595.1297837402877</v>
+        <v>4100.675319257894</v>
       </c>
       <c r="S23">
-        <v>0.033977434023102</v>
+        <v>0.03559126188792711</v>
       </c>
       <c r="T23">
-        <v>0.033977434023102</v>
+        <v>0.02578074063257017</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H24">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I24">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J24">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N24">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O24">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P24">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q24">
-        <v>687.5895884199257</v>
+        <v>777.8014125682179</v>
       </c>
       <c r="R24">
-        <v>687.5895884199257</v>
+        <v>4666.808475409307</v>
       </c>
       <c r="S24">
-        <v>0.03925619337798963</v>
+        <v>0.04050493874729625</v>
       </c>
       <c r="T24">
-        <v>0.03925619337798963</v>
+        <v>0.02933999146954677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H25">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I25">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J25">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N25">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O25">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P25">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q25">
-        <v>894.7559568206606</v>
+        <v>974.1945982709747</v>
       </c>
       <c r="R25">
-        <v>894.7559568206606</v>
+        <v>5845.167589625848</v>
       </c>
       <c r="S25">
-        <v>0.05108383468658425</v>
+        <v>0.05073234876319006</v>
       </c>
       <c r="T25">
-        <v>0.05108383468658425</v>
+        <v>0.03674827628375136</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H26">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I26">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J26">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N26">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O26">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P26">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q26">
-        <v>252.4894147291676</v>
+        <v>273.3788061395063</v>
       </c>
       <c r="R26">
-        <v>252.4894147291676</v>
+        <v>1093.515224558025</v>
       </c>
       <c r="S26">
-        <v>0.01441524632925404</v>
+        <v>0.0142365282687353</v>
       </c>
       <c r="T26">
-        <v>0.01441524632925404</v>
+        <v>0.006874875523478183</v>
       </c>
     </row>
   </sheetData>
